--- a/product_discount_setting.xlsx
+++ b/product_discount_setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong.kk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{673A752E-E3A6-4158-833F-21DCCB6539A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35D6AFC-3C5E-4DE3-821D-98B5A5C2D189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D5A23C56-0455-4533-A6A2-27AD40A82DED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
   <si>
     <t>RuleSet</t>
   </si>
@@ -107,9 +107,6 @@
     <t>$customer.setEligibleCampaign($param);</t>
   </si>
   <si>
-    <t>planCode == $1</t>
-  </si>
-  <si>
     <t>PLAN CODE</t>
   </si>
   <si>
@@ -122,16 +119,16 @@
     <t>ELIGIBLE CAMPAIGN CODE</t>
   </si>
   <si>
-    <t xml:space="preserve">RBWLI3 </t>
-  </si>
-  <si>
-    <t>RBWLI3</t>
-  </si>
-  <si>
     <t>PD001</t>
   </si>
   <si>
     <t>Calculate premium discounted amount for basic discount under Campaign</t>
+  </si>
+  <si>
+    <t>RBWLI3, RBWLI3A</t>
+  </si>
+  <si>
+    <t>planCode.contains($1)</t>
   </si>
 </sst>
 </file>
@@ -509,13 +506,14 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="4" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
@@ -535,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -543,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,7 +594,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -620,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
@@ -629,10 +627,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -646,7 +644,7 @@
         <v>30000</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -658,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,7 +670,7 @@
         <v>80000</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -684,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -707,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,7 +731,7 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -759,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -808,7 +806,7 @@
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -834,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -883,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -932,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -958,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1007,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1033,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1059,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
